--- a/data/exploratory_loadings_gpt4.xlsx
+++ b/data/exploratory_loadings_gpt4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a438a88ad6cf7/trabalho/repositorios/mfv_llm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\alunos-pg\joseluizn\mfv_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1939A231465C380F62355476585DCE3A874714B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A61E11-9FD7-E741-B6DA-D50F089707A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547A819-1C31-4318-B997-C3CB1F545EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,17 +326,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -656,13 +646,13 @@
       <selection activeCell="B57" sqref="B53:B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" outlineLevel="1"/>
+    <col min="2" max="2" width="80.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>102</v>
       </c>
@@ -726,7 +716,7 @@
         <v>2.429246505199854E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>103</v>
       </c>
@@ -758,7 +748,7 @@
         <v>5.6948948671628523E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>104</v>
       </c>
@@ -790,7 +780,7 @@
         <v>0.1774075714813976</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>105</v>
       </c>
@@ -822,7 +812,7 @@
         <v>-2.3674794066833031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109</v>
       </c>
@@ -854,7 +844,7 @@
         <v>-9.5456106810440228E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>110</v>
       </c>
@@ -886,7 +876,7 @@
         <v>9.4734528046235153E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>111</v>
       </c>
@@ -918,7 +908,7 @@
         <v>-0.1227720194741829</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>112</v>
       </c>
@@ -950,7 +940,7 @@
         <v>-2.8819077960312758E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>113</v>
       </c>
@@ -982,7 +972,7 @@
         <v>7.8303641113523614E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>114</v>
       </c>
@@ -1014,7 +1004,7 @@
         <v>-0.38603665453905411</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>202</v>
       </c>
@@ -1046,7 +1036,7 @@
         <v>-7.4026504881069349E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>204</v>
       </c>
@@ -1078,7 +1068,7 @@
         <v>-0.24508893986299299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>205</v>
       </c>
@@ -1110,7 +1100,7 @@
         <v>-6.988610155643743E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>206</v>
       </c>
@@ -1142,7 +1132,7 @@
         <v>5.0924686905393778E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>208</v>
       </c>
@@ -1174,7 +1164,7 @@
         <v>-0.2145928942697411</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>303</v>
       </c>
@@ -1206,7 +1196,7 @@
         <v>-0.25935614740471402</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>402</v>
       </c>
@@ -1238,7 +1228,7 @@
         <v>0.23798834337093211</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>403</v>
       </c>
@@ -1270,7 +1260,7 @@
         <v>2.2135212257306591E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>404</v>
       </c>
@@ -1302,7 +1292,7 @@
         <v>0.24490218351939319</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>405</v>
       </c>
@@ -1334,7 +1324,7 @@
         <v>-8.7701310254435685E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>406</v>
       </c>
@@ -1366,7 +1356,7 @@
         <v>6.3444446151798672E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>408</v>
       </c>
@@ -1398,7 +1388,7 @@
         <v>-2.531107632837163E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>409</v>
       </c>
@@ -1430,7 +1420,7 @@
         <v>9.7377820364828005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>411</v>
       </c>
@@ -1462,7 +1452,7 @@
         <v>-0.1179312332253107</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>501</v>
       </c>
@@ -1494,7 +1484,7 @@
         <v>-3.0517585788545971E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>502</v>
       </c>
@@ -1526,7 +1516,7 @@
         <v>0.1114517464373341</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>503</v>
       </c>
@@ -1558,7 +1548,7 @@
         <v>-3.9811063138434057E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>504</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>-3.2509463411184887E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>507</v>
       </c>
@@ -1622,7 +1612,7 @@
         <v>-0.1111830365705124</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>509</v>
       </c>
@@ -1654,7 +1644,7 @@
         <v>0.18615669996502901</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>510</v>
       </c>
@@ -1686,7 +1676,7 @@
         <v>-2.000734289197616E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>601</v>
       </c>
@@ -1718,7 +1708,7 @@
         <v>1.809813686957655E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>602</v>
       </c>
@@ -1750,7 +1740,7 @@
         <v>1.4470005237251379E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>603</v>
       </c>
@@ -1782,7 +1772,7 @@
         <v>6.8428692883799921E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>604</v>
       </c>
@@ -1814,7 +1804,7 @@
         <v>9.0101366659231033E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>605</v>
       </c>
@@ -1846,7 +1836,7 @@
         <v>6.2293678840794363E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>608</v>
       </c>
@@ -1878,7 +1868,7 @@
         <v>-4.2299436486022093E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>610</v>
       </c>
@@ -1910,7 +1900,7 @@
         <v>2.6374711902458301E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>611</v>
       </c>
@@ -1942,7 +1932,7 @@
         <v>8.5661797343908455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>612</v>
       </c>
@@ -1974,7 +1964,7 @@
         <v>-5.5763189672065408E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>614</v>
       </c>
@@ -2006,7 +1996,7 @@
         <v>-1.2164153118997221E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>701</v>
       </c>
@@ -2038,7 +2028,7 @@
         <v>5.4535163904788951E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>702</v>
       </c>
@@ -2070,7 +2060,7 @@
         <v>-4.2834901908043142E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>703</v>
       </c>
@@ -2102,7 +2092,7 @@
         <v>-0.17642810723424401</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>704</v>
       </c>
@@ -2134,7 +2124,7 @@
         <v>0.13126647489513679</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>705</v>
       </c>
@@ -2166,7 +2156,7 @@
         <v>1.28093593289722E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>706</v>
       </c>
@@ -2198,7 +2188,7 @@
         <v>-3.5986681620171719E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>707</v>
       </c>
@@ -2230,7 +2220,7 @@
         <v>-8.511341073526929E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>709</v>
       </c>
@@ -2262,7 +2252,7 @@
         <v>2.040859726582881E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>710</v>
       </c>
@@ -2294,7 +2284,7 @@
         <v>8.1677211247990114E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>711</v>
       </c>
@@ -2326,7 +2316,7 @@
         <v>-3.593138983055786E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>712</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>0.43228237631925481</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>713</v>
       </c>
@@ -2390,7 +2380,7 @@
         <v>0.5934523642628714</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>714</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>0.12559782485442961</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>715</v>
       </c>
@@ -2454,7 +2444,7 @@
         <v>8.6782832864954751E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>716</v>
       </c>
@@ -2486,7 +2476,7 @@
         <v>0.28906388662644628</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>802</v>
       </c>
@@ -2518,7 +2508,7 @@
         <v>0.12532042694433951</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>804</v>
       </c>
@@ -2550,7 +2540,7 @@
         <v>-9.5456106623314121E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>805</v>
       </c>
@@ -2582,7 +2572,7 @@
         <v>5.7281775699217788E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>808</v>
       </c>
@@ -2614,7 +2604,7 @@
         <v>9.3021237187525252E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>810</v>
       </c>
@@ -2648,10 +2638,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
